--- a/main/resource/线上学习-谓词逻辑2_1678767032821.xlsx
+++ b/main/resource/线上学习-谓词逻辑2_1678767032821.xlsx
@@ -436,7 +436,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>公式|理解</t>
+          <t>公式,理解</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -448,7 +448,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>公式|理解</t>
+          <t>公式,理解</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>公式|理解</t>
+          <t>公式,理解</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>公式|理解</t>
+          <t>公式,理解</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>公式|理解</t>
+          <t>公式,理解</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>公式|理解</t>
+          <t>公式,理解</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>公式|理解</t>
+          <t>公式,理解</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>公式|理解</t>
+          <t>公式,理解</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>公式|理解</t>
+          <t>公式,理解</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>公式|理解</t>
+          <t>公式,理解</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>公式|理解</t>
+          <t>公式,理解</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>公式|理解</t>
+          <t>公式,理解</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>公式|理解</t>
+          <t>公式,理解</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>公式|理解</t>
+          <t>公式,理解</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>公式|理解</t>
+          <t>公式,理解</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>公式|理解</t>
+          <t>公式,理解</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>公式|理解</t>
+          <t>公式,理解</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>公式|理解</t>
+          <t>公式,理解</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>公式|理解</t>
+          <t>公式,理解</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>公式|理解</t>
+          <t>公式,理解</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>公式|理解</t>
+          <t>公式,理解</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>公式|理解</t>
+          <t>公式,理解</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>公式|理解</t>
+          <t>公式,理解</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>规则|理解</t>
+          <t>规则,理解</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>推理|证明</t>
+          <t>推理,证明</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>推理|证明</t>
+          <t>推理,证明</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>推理|证明</t>
+          <t>推理,证明</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>推理|证明</t>
+          <t>推理,证明</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>推理|证明</t>
+          <t>推理,证明</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>推理|证明</t>
+          <t>推理,证明</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>推理|证明</t>
+          <t>推理,证明</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>推理|证明</t>
+          <t>推理,证明</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>推理|证明</t>
+          <t>推理,证明</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>推理|证明</t>
+          <t>推理,证明</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>不是|理解</t>
+          <t>不是,理解</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>不是|理解</t>
+          <t>不是,理解</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>不是|理解</t>
+          <t>不是,理解</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>不是|理解</t>
+          <t>不是,理解</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>不是|理解</t>
+          <t>不是,理解</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>不是|理解</t>
+          <t>不是,理解</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>量词|消去</t>
+          <t>量词,消去</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>量词|消去</t>
+          <t>量词,消去</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>量词|消去</t>
+          <t>量词,消去</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">

--- a/main/resource/线上学习-谓词逻辑2_1678767032821.xlsx
+++ b/main/resource/线上学习-谓词逻辑2_1678767032821.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>公式,理解</t>
+          <t>没有</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -448,475 +448,475 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>公式,理解</t>
+          <t>没有</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>没有不懂的地方</t>
+          <t>无</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>公式,理解</t>
+          <t>没有</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>这个定理的1证明不理解 还有这些定理有没有例子可以帮助理解？34 57 68是不是没区别啊</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>公式,理解</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>老师您好，我对前束范式的讲解部分不能完全的理解。</t>
+          <t>没有</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>公式,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>概念太多，记忆困难，视频内容不易理解</t>
+          <t>蕴含式和等价式的公式怎么记忆，总是乱了</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>公式,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>一些公式记不住</t>
+          <t>没有不懂的地方</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>公式,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>公式太多，推导时理由的名称难记</t>
+          <t>将公式转化为前束范式的套路是什么，怎么快速记住谓词演算的关系式</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>公式,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>谓词逻辑的推理规则的条件不太清楚</t>
+          <t>这个定理的1证明不理解 还有这些定理有没有例子可以帮助理解？34 57 68是不是没区别啊</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>公式,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>定理2.4.5怎么证明右边推不了左边？例题2.6.4的错误原因理解不来</t>
+          <t>老师您好，我对前束范式的讲解部分不能完全的理解。</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>公式,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>无法推出该如何说明</t>
+          <t>量词引用消去四条规则运用不是很熟练</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>公式,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>标题錯亂影片程序錯亂课堂大概內容能够理解</t>
+          <t>辖域收缩与扩招，量词换名规则不怎么懂</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>公式,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>我觉得逻辑变换的公式很乱，容易弄混</t>
+          <t>概念太多，记忆困难，视频内容不易理解</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>公式,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>容易和前面混淆</t>
+          <t>感觉还行，对于消去和引用不熟</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>公式,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>推理规则不太明白</t>
+          <t>量词消去和引入的前提不能理解</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>公式,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>公式定理太多了，而且还没有彻底弄懂，似懂非懂的，有点记不住</t>
+          <t>EI规则的条件3的逻辑意义不是很懂</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>公式,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>是否先用EI再用UI可使消去后，存在xA（x）蕴含A（c）与任意xA（x）蕴含A（c）是成立的</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>公式,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>存在x对所有y A（x，y）怎么推出对所有y存在x A（x，y）？</t>
+          <t>ui ei ug eg 不懂自由变元和约束变元看书不明白</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>公式,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>公式不记得</t>
+          <t>对谓词关系式中的蕴含式的演算不够熟练</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>公式,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>没有</t>
+          <t>一些公式记不住</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>公式,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>在换成前束范式中，什么时候需要把约束变元换名</t>
+          <t>公式太多，推导时理由的名称难记</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>公式,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>我觉得对于这个话题我只是表面上的略懂，想在周一的会议详细了解。</t>
+          <t>在量词消去和引入的规则里，不理解自由出现的个体变元是不是和自由变元一样，第二章章节检测里的19，13，8题不太理解。</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>公式,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>谓词逻辑的推理规则还不太明白</t>
+          <t>感觉UI规则成立的条件不太理解，其中的x是自由出现的个体变元但我感觉是被约束的</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>公式,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>公式与规则有些多、且比较相似，记忆比较困难。</t>
+          <t>1、难以理解UI规则的成立条件，什么时候不能用啊2、像B（x)这种没有量词约束的，x到底什么意思呢，自由出现可以随意换名？</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>理解,规则</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>量词的引入和消除不是很理解谓词命题与前面学的命题的转换：对于什么时候可以转换不是很清楚</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>蕴含式和等价式的公式怎么记忆，总是乱了</t>
+          <t>UI EI UG EG不是很理解，到底应该怎么用</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>量词引用消去四条规则运用不是很熟练</t>
+          <t>谓词逻辑的推理规则的条件不太清楚</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>辖域收缩与扩招，量词换名规则不怎么懂</t>
+          <t>定理2.4.5怎么证明右边推不了左边？例题2.6.4的错误原因理解不来</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>量词消去和引入的前提不能理解</t>
+          <t>将命题用谓词和量词表示比较困难难懂</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>EI规则的条件3的逻辑意义不是很懂</t>
+          <t>蕴涵式的证明反方向不知道怎么证明前束范式有些不知道怎么提到前面</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>是否先用EI再用UI可使消去后，存在xA（x）蕴含A（c）与任意xA（x）蕴含A（c）是成立的</t>
+          <t>无法推出该如何说明</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ui ei ug eg 不懂自由变元和约束变元看书不明白</t>
+          <t>难理解的是4条推理规则 比较容易弄混</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>对谓词关系式中的蕴含式的演算不够熟练</t>
+          <t>这里不太懂</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>在量词消去和引入的规则里，不理解自由出现的个体变元是不是和自由变元一样，第二章章节检测里的19，13，8题不太理解。</t>
+          <t>量词消去和引入的条件 推理定律不熟</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>感觉UI规则成立的条件不太理解，其中的x是自由出现的个体变元但我感觉是被约束的</t>
+          <t>标题錯亂影片程序錯亂课堂大概內容能够理解</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1、难以理解UI规则的成立条件，什么时候不能用啊2、像B（x)这种没有量词约束的，x到底什么意思呢，自由出现可以随意换名？</t>
+          <t>谓词演算的推理关系</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>UI EI UG EG不是很理解，到底应该怎么用</t>
+          <t>等值式和蕴含式容易搞混</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>将命题用谓词和量词表示比较困难难懂</t>
+          <t>这些公式怎么理解啊？ 都不是很理解就不会运用</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>难理解的是4条推理规则 比较容易弄混</t>
+          <t>量词引入中的个体与整体关系不是太清楚</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>这里不太懂</t>
+          <t>我觉得逻辑变换的公式很乱，容易弄混</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>量词消去和引入的条件 推理定律不熟</t>
+          <t>容易和前面混淆</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>等值式和蕴含式容易搞混</t>
+          <t>推理规则不太明白</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -928,480 +928,480 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>四个规则的条件有点难理解，叙述太繁琐，我感觉还能更简洁</t>
+          <t>量词的引入和消去有些不能理解具体例题的解题方向不太清晰</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>蕴含推理那里</t>
+          <t>公式定理太多了，而且还没有彻底弄懂，似懂非懂的，有点记不住</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>蕴含式还是有点不太懂</t>
+          <t>如何求一个公式的前束范式</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>量词消去前提不是很理解</t>
+          <t>前束范式</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>只要用UI引入了一次自由变元，后面都不能对任意变元用EI了吗</t>
+          <t>如何说明推理是否是逻辑有效的，指出推理错误。</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>EI和UG的使用前提不理解</t>
+          <t>谓词演算推理还找不到技巧</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>量词消去和引入规则的成立条件</t>
+          <t>四个规则的条件有点难理解，叙述太繁琐，我感觉还能更简洁</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>比较难理解和记忆各种规则</t>
+          <t>二者同时存在时为什么要先消去存在量词再消去全称量词？</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>谓词等值式</t>
+          <t>蕴含推理那里</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>难理解的主要在谓词蕴含</t>
+          <t>存在x对所有y A（x，y）怎么推出对所有y存在x A（x，y）？</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>等值式不太清楚</t>
+          <t>蕴含式还是有点不太懂</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>不会证明定理2.4.6下面的蕴含式</t>
+          <t>多个量词同时使用的蕴含式不是特别理解</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>量词规则的使用注意事项可以讲得再仔细一点嘛感觉对各个公式掌握的还不够熟练</t>
+          <t>公式不记得</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ui规则，ei规则等的使用限制</t>
+          <t>量词消去前提不是很理解</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>UI，EI，UG，EG为什么会有相应的适用条件</t>
+          <t>推理证明19（3）p5120（5）</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>EI, UI, EG, UG 规则。</t>
+          <t>推理问题的证明还是不是很熟谓词等价式，蕴涵式有点乱</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>谓词不太理解</t>
+          <t>只要用UI引入了一次自由变元，后面都不能对任意变元用EI了吗</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>推理规则</t>
+          <t>EI和UG的使用前提不理解</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>消去引入规则不是很明白</t>
+          <t>量词消去和引入规则的成立条件</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>最后的ei ui规则理解不了</t>
+          <t>比较难理解和记忆各种规则</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>规则,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>证明谓词演算的推理</t>
+          <t>这道题不太理解</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>理解,规则</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>谓词等值式</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>推理,证明</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>将公式转化为前束范式的套路是什么，怎么快速记住谓词演算的关系式</t>
+          <t>难理解的主要在谓词蕴含</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>推理,证明</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>蕴涵式的证明反方向不知道怎么证明前束范式有些不知道怎么提到前面</t>
+          <t>等值式不太清楚</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>推理,证明</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>谓词演算的推理关系</t>
+          <t>证明谓语演算的推理不太熟悉</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>推理,证明</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>如何求一个公式的前束范式</t>
+          <t>不会证明定理2.4.6下面的蕴含式</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>推理,证明</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>前束范式</t>
+          <t>在换成前束范式中，什么时候需要把约束变元换名</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>推理,证明</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>如何说明推理是否是逻辑有效的，指出推理错误。</t>
+          <t>量词规则的使用注意事项可以讲得再仔细一点嘛感觉对各个公式掌握的还不够熟练</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>推理,证明</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>谓词演算推理还找不到技巧</t>
+          <t>ui规则，ei规则等的使用限制</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>推理,证明</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>推理证明19（3）p5120（5）</t>
+          <t>UI，EI，UG，EG为什么会有相应的适用条件</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>推理,证明</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>推理问题的证明还是不是很熟谓词等价式，蕴涵式有点乱</t>
+          <t>我觉得对于这个话题我只是表面上的略懂，想在周一的会议详细了解。</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>推理,证明</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>证明谓语演算的推理不太熟悉</t>
+          <t>EI, UI, EG, UG 规则。</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>理解,规则</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>谓词逻辑的推理规则还不太明白</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>不是,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>感觉还行，对于消去和引用不熟</t>
+          <t>谓词不太理解</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>不是,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>量词的引入和消除不是很理解谓词命题与前面学的命题的转换：对于什么时候可以转换不是很清楚</t>
+          <t>推理规则</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>不是,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>这些公式怎么理解啊？ 都不是很理解就不会运用</t>
+          <t>消去引入规则不是很明白</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>不是,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>量词引入中的个体与整体关系不是太清楚</t>
+          <t>最后的ei ui规则理解不了</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>不是,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>多个量词同时使用的蕴含式不是特别理解</t>
+          <t>量词引入和消除的条件不太理解</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>不是,理解</t>
+          <t>理解,规则</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>这道题不太理解</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>量词,消去</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>量词的引入和消去有些不能理解具体例题的解题方向不太清晰</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>量词,消去</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>二者同时存在时为什么要先消去存在量词再消去全称量词？</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>量词,消去</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>量词引入和消除的条件不太理解</t>
+          <t>证明谓词演算的推理</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>理解,规则</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>公式与规则有些多、且比较相似，记忆比较困难。</t>
         </is>
       </c>
     </row>

--- a/main/resource/线上学习-谓词逻辑2_1678767032821.xlsx
+++ b/main/resource/线上学习-谓词逻辑2_1678767032821.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>没有</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -448,960 +448,960 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>没有</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>蕴含式和等价式的公式怎么记忆，总是乱了</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>没有</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>没有</t>
+          <t>没有不懂的地方</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>量词,公式</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>将公式转化为前束范式的套路是什么，怎么快速记住谓词演算的关系式</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>蕴含式和等价式的公式怎么记忆，总是乱了</t>
+          <t>这个定理的1证明不理解 还有这些定理有没有例子可以帮助理解？34 57 68是不是没区别啊</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>没有不懂的地方</t>
+          <t>老师您好，我对前束范式的讲解部分不能完全的理解。</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>将公式转化为前束范式的套路是什么，怎么快速记住谓词演算的关系式</t>
+          <t>量词引用消去四条规则运用不是很熟练</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>这个定理的1证明不理解 还有这些定理有没有例子可以帮助理解？34 57 68是不是没区别啊</t>
+          <t>辖域收缩与扩招，量词换名规则不怎么懂</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>老师您好，我对前束范式的讲解部分不能完全的理解。</t>
+          <t>概念太多，记忆困难，视频内容不易理解</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>量词引用消去四条规则运用不是很熟练</t>
+          <t>感觉还行，对于消去和引用不熟</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>辖域收缩与扩招，量词换名规则不怎么懂</t>
+          <t>量词消去和引入的前提不能理解</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>概念太多，记忆困难，视频内容不易理解</t>
+          <t>是否先用EI再用UI可使消去后，存在xA（x）蕴含A（c）与任意xA（x）蕴含A（c）是成立的</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>感觉还行，对于消去和引用不熟</t>
+          <t>对谓词关系式中的蕴含式的演算不够熟练</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>量词消去和引入的前提不能理解</t>
+          <t>一些公式记不住</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EI规则的条件3的逻辑意义不是很懂</t>
+          <t>公式太多，推导时理由的名称难记</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>是否先用EI再用UI可使消去后，存在xA（x）蕴含A（c）与任意xA（x）蕴含A（c）是成立的</t>
+          <t>在量词消去和引入的规则里，不理解自由出现的个体变元是不是和自由变元一样，第二章章节检测里的19，13，8题不太理解。</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ui ei ug eg 不懂自由变元和约束变元看书不明白</t>
+          <t>感觉UI规则成立的条件不太理解，其中的x是自由出现的个体变元但我感觉是被约束的</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>对谓词关系式中的蕴含式的演算不够熟练</t>
+          <t>1、难以理解UI规则的成立条件，什么时候不能用啊2、像B（x)这种没有量词约束的，x到底什么意思呢，自由出现可以随意换名？</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>一些公式记不住</t>
+          <t>量词的引入和消除不是很理解谓词命题与前面学的命题的转换：对于什么时候可以转换不是很清楚</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>公式太多，推导时理由的名称难记</t>
+          <t>定理2.4.5怎么证明右边推不了左边？例题2.6.4的错误原因理解不来</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>在量词消去和引入的规则里，不理解自由出现的个体变元是不是和自由变元一样，第二章章节检测里的19，13，8题不太理解。</t>
+          <t>将命题用谓词和量词表示比较困难难懂</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>感觉UI规则成立的条件不太理解，其中的x是自由出现的个体变元但我感觉是被约束的</t>
+          <t>蕴涵式的证明反方向不知道怎么证明前束范式有些不知道怎么提到前面</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1、难以理解UI规则的成立条件，什么时候不能用啊2、像B（x)这种没有量词约束的，x到底什么意思呢，自由出现可以随意换名？</t>
+          <t>无法推出该如何说明</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>量词的引入和消除不是很理解谓词命题与前面学的命题的转换：对于什么时候可以转换不是很清楚</t>
+          <t>这里不太懂</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>UI EI UG EG不是很理解，到底应该怎么用</t>
+          <t>量词消去和引入的条件 推理定律不熟</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>谓词逻辑的推理规则的条件不太清楚</t>
+          <t>标题錯亂影片程序錯亂课堂大概內容能够理解</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>定理2.4.5怎么证明右边推不了左边？例题2.6.4的错误原因理解不来</t>
+          <t>谓词演算的推理关系</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>将命题用谓词和量词表示比较困难难懂</t>
+          <t>等值式和蕴含式容易搞混</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>蕴涵式的证明反方向不知道怎么证明前束范式有些不知道怎么提到前面</t>
+          <t>这些公式怎么理解啊？ 都不是很理解就不会运用</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>无法推出该如何说明</t>
+          <t>量词引入中的个体与整体关系不是太清楚</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>难理解的是4条推理规则 比较容易弄混</t>
+          <t>我觉得逻辑变换的公式很乱，容易弄混</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>这里不太懂</t>
+          <t>容易和前面混淆</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>量词消去和引入的条件 推理定律不熟</t>
+          <t>量词的引入和消去有些不能理解具体例题的解题方向不太清晰</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>标题錯亂影片程序錯亂课堂大概內容能够理解</t>
+          <t>公式定理太多了，而且还没有彻底弄懂，似懂非懂的，有点记不住</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>谓词演算的推理关系</t>
+          <t>无</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>等值式和蕴含式容易搞混</t>
+          <t>如何求一个公式的前束范式</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>这些公式怎么理解啊？ 都不是很理解就不会运用</t>
+          <t>前束范式</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>量词引入中的个体与整体关系不是太清楚</t>
+          <t>如何说明推理是否是逻辑有效的，指出推理错误。</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>我觉得逻辑变换的公式很乱，容易弄混</t>
+          <t>谓词演算推理还找不到技巧</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>容易和前面混淆</t>
+          <t>四个规则的条件有点难理解，叙述太繁琐，我感觉还能更简洁</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>推理规则不太明白</t>
+          <t>二者同时存在时为什么要先消去存在量词再消去全称量词？</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>在推理的时候EI EG UI UG使用的时候不清楚能不能直接使用</t>
+          <t>蕴含推理那里</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>量词的引入和消去有些不能理解具体例题的解题方向不太清晰</t>
+          <t>存在x对所有y A（x，y）怎么推出对所有y存在x A（x，y）？</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>公式定理太多了，而且还没有彻底弄懂，似懂非懂的，有点记不住</t>
+          <t>蕴含式还是有点不太懂</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>如何求一个公式的前束范式</t>
+          <t>多个量词同时使用的蕴含式不是特别理解</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>前束范式</t>
+          <t>公式不记得</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>如何说明推理是否是逻辑有效的，指出推理错误。</t>
+          <t>量词消去前提不是很理解</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>谓词演算推理还找不到技巧</t>
+          <t>推理证明19（3）p5120（5）</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>四个规则的条件有点难理解，叙述太繁琐，我感觉还能更简洁</t>
+          <t>推理问题的证明还是不是很熟谓词等价式，蕴涵式有点乱</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>二者同时存在时为什么要先消去存在量词再消去全称量词？</t>
+          <t>没有</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>蕴含推理那里</t>
+          <t>比较难理解和记忆各种规则</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>存在x对所有y A（x，y）怎么推出对所有y存在x A（x，y）？</t>
+          <t>这道题不太理解</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>蕴含式还是有点不太懂</t>
+          <t>谓词等值式</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>多个量词同时使用的蕴含式不是特别理解</t>
+          <t>难理解的主要在谓词蕴含</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>公式不记得</t>
+          <t>等值式不太清楚</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>量词消去前提不是很理解</t>
+          <t>证明谓语演算的推理不太熟悉</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>推理证明19（3）p5120（5）</t>
+          <t>不会证明定理2.4.6下面的蕴含式</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>推理问题的证明还是不是很熟谓词等价式，蕴涵式有点乱</t>
+          <t>在换成前束范式中，什么时候需要把约束变元换名</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>只要用UI引入了一次自由变元，后面都不能对任意变元用EI了吗</t>
+          <t>量词规则的使用注意事项可以讲得再仔细一点嘛感觉对各个公式掌握的还不够熟练</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>EI和UG的使用前提不理解</t>
+          <t>我觉得对于这个话题我只是表面上的略懂，想在周一的会议详细了解。</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>量词消去和引入规则的成立条件</t>
+          <t>谓词不太理解</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>比较难理解和记忆各种规则</t>
+          <t>量词引入和消除的条件不太理解</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>这道题不太理解</t>
+          <t>证明谓词演算的推理</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,公式</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>谓词等值式</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>理解,规则</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>难理解的主要在谓词蕴含</t>
+          <t>公式与规则有些多、且比较相似，记忆比较困难。</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>ei,ug</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>等值式不太清楚</t>
+          <t>EI规则的条件3的逻辑意义不是很懂</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>ei,ug</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>证明谓语演算的推理不太熟悉</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>理解,规则</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>不会证明定理2.4.6下面的蕴含式</t>
+          <t>在推理的时候EI EG UI UG使用的时候不清楚能不能直接使用</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>ei,变元</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>在换成前束范式中，什么时候需要把约束变元换名</t>
+          <t>ui ei ug eg 不懂自由变元和约束变元看书不明白</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>ei,变元</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>量词规则的使用注意事项可以讲得再仔细一点嘛感觉对各个公式掌握的还不够熟练</t>
+          <t>只要用UI引入了一次自由变元，后面都不能对任意变元用EI了吗</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>ei,变元</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ui规则，ei规则等的使用限制</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>理解,规则</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>UI，EI，UG，EG为什么会有相应的适用条件</t>
+          <t>EI和UG的使用前提不理解</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>ug,eg</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>我觉得对于这个话题我只是表面上的略懂，想在周一的会议详细了解。</t>
+          <t>UI EI UG EG不是很理解，到底应该怎么用</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>ug,eg</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>EI, UI, EG, UG 规则。</t>
+          <t>UI，EI，UG，EG为什么会有相应的适用条件</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>ug,eg</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>谓词逻辑的推理规则还不太明白</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>理解,规则</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>谓词不太理解</t>
+          <t>EI, UI, EG, UG 规则。</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>推理,规则</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>推理规则</t>
+          <t>谓词逻辑的推理规则的条件不太清楚</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>推理,规则</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>消去引入规则不是很明白</t>
+          <t>难理解的是4条推理规则 比较容易弄混</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>推理,规则</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>最后的ei ui规则理解不了</t>
+          <t>推理规则不太明白</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>推理,规则</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>量词引入和消除的条件不太理解</t>
+          <t>谓词逻辑的推理规则还不太明白</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>推理,规则</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>证明谓词演算的推理</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>理解,规则</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>公式与规则有些多、且比较相似，记忆比较困难。</t>
+          <t>推理规则</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>引入,规则</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>量词消去和引入规则的成立条件</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>引入,规则</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>消去引入规则不是很明白</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>规则,ei</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ui规则，ei规则等的使用限制</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>规则,ei</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>最后的ei ui规则理解不了</t>
         </is>
       </c>
     </row>

--- a/main/resource/线上学习-谓词逻辑2_1678767032821.xlsx
+++ b/main/resource/线上学习-谓词逻辑2_1678767032821.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Questions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Questions" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>没有</t>
+          <t>规则,蕴含</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -448,571 +448,559 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>没有</t>
+          <t>规则,蕴含</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>没有不懂的地方</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>没有</t>
+          <t>规则,蕴含</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>没有</t>
+          <t>这个定理的1证明不理解 还有这些定理有没有例子可以帮助理解？34 57 68是不是没区别啊</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>规则,蕴含</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>老师您好，我对前束范式的讲解部分不能完全的理解。</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>规则,蕴含</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>蕴含式和等价式的公式怎么记忆，总是乱了</t>
+          <t>辖域收缩与扩招，量词换名规则不怎么懂</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>规则,蕴含</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>没有不懂的地方</t>
+          <t>概念太多，记忆困难，视频内容不易理解</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>规则,蕴含</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>将公式转化为前束范式的套路是什么，怎么快速记住谓词演算的关系式</t>
+          <t>EI规则的条件3的逻辑意义不是很懂</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>规则,蕴含</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>这个定理的1证明不理解 还有这些定理有没有例子可以帮助理解？34 57 68是不是没区别啊</t>
+          <t>是否先用EI再用UI可使消去后，存在xA（x）蕴含A（c）与任意xA（x）蕴含A（c）是成立的</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>规则,蕴含</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>老师您好，我对前束范式的讲解部分不能完全的理解。</t>
+          <t>感觉UI规则成立的条件不太理解，其中的x是自由出现的个体变元但我感觉是被约束的</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>规则,蕴含</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>量词引用消去四条规则运用不是很熟练</t>
+          <t>1、难以理解UI规则的成立条件，什么时候不能用啊2、像B（x)这种没有量词约束的，x到底什么意思呢，自由出现可以随意换名？</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>规则,蕴含</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>辖域收缩与扩招，量词换名规则不怎么懂</t>
+          <t>定理2.4.5怎么证明右边推不了左边？例题2.6.4的错误原因理解不来</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>规则,蕴含</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>概念太多，记忆困难，视频内容不易理解</t>
+          <t>蕴涵式的证明反方向不知道怎么证明前束范式有些不知道怎么提到前面</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>规则,蕴含</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>感觉还行，对于消去和引用不熟</t>
+          <t>无法推出该如何说明</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>规则,蕴含</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>量词消去和引入的前提不能理解</t>
+          <t>这里不太懂</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>规则,蕴含</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EI规则的条件3的逻辑意义不是很懂</t>
+          <t>标题錯亂影片程序錯亂课堂大概內容能够理解</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>规则,蕴含</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>是否先用EI再用UI可使消去后，存在xA（x）蕴含A（c）与任意xA（x）蕴含A（c）是成立的</t>
+          <t>等值式和蕴含式容易搞混</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>规则,蕴含</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ui ei ug eg 不懂自由变元和约束变元看书不明白</t>
+          <t>容易和前面混淆</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>规则,蕴含</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>对谓词关系式中的蕴含式的演算不够熟练</t>
+          <t>无</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>规则,蕴含</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>一些公式记不住</t>
+          <t>前束范式</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>规则,蕴含</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>公式太多，推导时理由的名称难记</t>
+          <t>四个规则的条件有点难理解，叙述太繁琐，我感觉还能更简洁</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>规则,蕴含</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>在量词消去和引入的规则里，不理解自由出现的个体变元是不是和自由变元一样，第二章章节检测里的19，13，8题不太理解。</t>
+          <t>存在x对所有y A（x，y）怎么推出对所有y存在x A（x，y）？</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>规则,蕴含</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>感觉UI规则成立的条件不太理解，其中的x是自由出现的个体变元但我感觉是被约束的</t>
+          <t>蕴含式还是有点不太懂</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>规则,蕴含</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1、难以理解UI规则的成立条件，什么时候不能用啊2、像B（x)这种没有量词约束的，x到底什么意思呢，自由出现可以随意换名？</t>
+          <t>没有</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>规则,蕴含</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>量词的引入和消除不是很理解谓词命题与前面学的命题的转换：对于什么时候可以转换不是很清楚</t>
+          <t>比较难理解和记忆各种规则</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>规则,蕴含</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>UI EI UG EG不是很理解，到底应该怎么用</t>
+          <t>这道题不太理解</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>规则,蕴含</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>谓词逻辑的推理规则的条件不太清楚</t>
+          <t>等值式不太清楚</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>规则,蕴含</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>定理2.4.5怎么证明右边推不了左边？例题2.6.4的错误原因理解不来</t>
+          <t>不会证明定理2.4.6下面的蕴含式</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>规则,蕴含</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>将命题用谓词和量词表示比较困难难懂</t>
+          <t>在换成前束范式中，什么时候需要把约束变元换名</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>规则,蕴含</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>蕴涵式的证明反方向不知道怎么证明前束范式有些不知道怎么提到前面</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>理解,规则</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>无法推出该如何说明</t>
+          <t>我觉得对于这个话题我只是表面上的略懂，想在周一的会议详细了解。</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>公式,前束</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>难理解的是4条推理规则 比较容易弄混</t>
+          <t>蕴含式和等价式的公式怎么记忆，总是乱了</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>公式,前束</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>这里不太懂</t>
+          <t>将公式转化为前束范式的套路是什么，怎么快速记住谓词演算的关系式</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>公式,前束</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>量词消去和引入的条件 推理定律不熟</t>
+          <t>一些公式记不住</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>公式,前束</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>标题錯亂影片程序錯亂课堂大概內容能够理解</t>
+          <t>公式太多，推导时理由的名称难记</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>公式,前束</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>谓词演算的推理关系</t>
+          <t>这些公式怎么理解啊？ 都不是很理解就不会运用</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>公式,前束</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>等值式和蕴含式容易搞混</t>
+          <t>我觉得逻辑变换的公式很乱，容易弄混</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>公式,前束</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>这些公式怎么理解啊？ 都不是很理解就不会运用</t>
+          <t>公式定理太多了，而且还没有彻底弄懂，似懂非懂的，有点记不住</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>公式,前束</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>量词引入中的个体与整体关系不是太清楚</t>
+          <t>如何求一个公式的前束范式</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>公式,前束</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>我觉得逻辑变换的公式很乱，容易弄混</t>
+          <t>公式不记得</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>公式,前束</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>容易和前面混淆</t>
+          <t>量词规则的使用注意事项可以讲得再仔细一点嘛感觉对各个公式掌握的还不够熟练</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>公式,前束</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>推理规则不太明白</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>理解,规则</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>在推理的时候EI EG UI UG使用的时候不清楚能不能直接使用</t>
+          <t>公式与规则有些多、且比较相似，记忆比较困难。</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,消去</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>量词的引入和消去有些不能理解具体例题的解题方向不太清晰</t>
+          <t>量词引用消去四条规则运用不是很熟练</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,消去</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>公式定理太多了，而且还没有彻底弄懂，似懂非懂的，有点记不住</t>
+          <t>感觉还行，对于消去和引用不熟</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,消去</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>如何求一个公式的前束范式</t>
+          <t>量词消去和引入的前提不能理解</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,消去</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>前束范式</t>
+          <t>在量词消去和引入的规则里，不理解自由出现的个体变元是不是和自由变元一样，第二章章节检测里的19，13，8题不太理解。</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,消去</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>如何说明推理是否是逻辑有效的，指出推理错误。</t>
+          <t>量词消去和引入的条件 推理定律不熟</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,消去</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>谓词演算推理还找不到技巧</t>
+          <t>量词引入中的个体与整体关系不是太清楚</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,消去</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>四个规则的条件有点难理解，叙述太繁琐，我感觉还能更简洁</t>
+          <t>量词的引入和消去有些不能理解具体例题的解题方向不太清晰</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,消去</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1024,310 +1012,274 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,消去</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>蕴含推理那里</t>
+          <t>多个量词同时使用的蕴含式不是特别理解</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,消去</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>存在x对所有y A（x，y）怎么推出对所有y存在x A（x，y）？</t>
+          <t>量词消去前提不是很理解</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,消去</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>蕴含式还是有点不太懂</t>
+          <t>量词消去和引入规则的成立条件</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,消去</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>多个量词同时使用的蕴含式不是特别理解</t>
+          <t>消去引入规则不是很明白</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>量词,消去</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>公式不记得</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>理解,规则</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>量词消去前提不是很理解</t>
+          <t>量词引入和消除的条件不太理解</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>ei,ui</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>推理证明19（3）p5120（5）</t>
+          <t>ui ei ug eg 不懂自由变元和约束变元看书不明白</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>ei,ui</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>推理问题的证明还是不是很熟谓词等价式，蕴涵式有点乱</t>
+          <t>UI EI UG EG不是很理解，到底应该怎么用</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>ei,ui</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>只要用UI引入了一次自由变元，后面都不能对任意变元用EI了吗</t>
+          <t>在推理的时候EI EG UI UG使用的时候不清楚能不能直接使用</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>ei,ui</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>EI和UG的使用前提不理解</t>
+          <t>只要用UI引入了一次自由变元，后面都不能对任意变元用EI了吗</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>ei,ui</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>量词消去和引入规则的成立条件</t>
+          <t>EI和UG的使用前提不理解</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>ei,ui</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>比较难理解和记忆各种规则</t>
+          <t>ui规则，ei规则等的使用限制</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>ei,ui</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>这道题不太理解</t>
+          <t>UI，EI，UG，EG为什么会有相应的适用条件</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>ei,ui</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>谓词等值式</t>
+          <t>EI, UI, EG, UG 规则。</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>ei,ui</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>难理解的主要在谓词蕴含</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>理解,规则</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>等值式不太清楚</t>
+          <t>最后的ei ui规则理解不了</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>谓词,推理</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>证明谓语演算的推理不太熟悉</t>
+          <t>对谓词关系式中的蕴含式的演算不够熟练</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>谓词,推理</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>不会证明定理2.4.6下面的蕴含式</t>
+          <t>量词的引入和消除不是很理解谓词命题与前面学的命题的转换：对于什么时候可以转换不是很清楚</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>谓词,推理</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>在换成前束范式中，什么时候需要把约束变元换名</t>
+          <t>谓词逻辑的推理规则的条件不太清楚</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>谓词,推理</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>量词规则的使用注意事项可以讲得再仔细一点嘛感觉对各个公式掌握的还不够熟练</t>
+          <t>将命题用谓词和量词表示比较困难难懂</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>谓词,推理</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ui规则，ei规则等的使用限制</t>
+          <t>推理问题的证明还是不是很熟谓词等价式，蕴涵式有点乱</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>谓词,推理</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>UI，EI，UG，EG为什么会有相应的适用条件</t>
+          <t>谓词等值式</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>谓词,推理</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>我觉得对于这个话题我只是表面上的略懂，想在周一的会议详细了解。</t>
+          <t>难理解的主要在谓词蕴含</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>谓词,推理</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>EI, UI, EG, UG 规则。</t>
+          <t>谓词逻辑的推理规则还不太明白</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>谓词,推理</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
-        <is>
-          <t>谓词逻辑的推理规则还不太明白</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>理解,规则</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
         <is>
           <t>谓词不太理解</t>
         </is>
@@ -1336,72 +1288,120 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>推理,谓词演算</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>推理规则</t>
+          <t>难理解的是4条推理规则 比较容易弄混</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>推理,谓词演算</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>消去引入规则不是很明白</t>
+          <t>谓词演算的推理关系</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>推理,谓词演算</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>最后的ei ui规则理解不了</t>
+          <t>推理规则不太明白</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>推理,谓词演算</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>量词引入和消除的条件不太理解</t>
+          <t>如何说明推理是否是逻辑有效的，指出推理错误。</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>推理,谓词演算</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>证明谓词演算的推理</t>
+          <t>谓词演算推理还找不到技巧</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>理解,规则</t>
+          <t>推理,谓词演算</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>公式与规则有些多、且比较相似，记忆比较困难。</t>
+          <t>蕴含推理那里</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>推理,谓词演算</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>推理证明19（3）p5120（5）</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>推理,谓词演算</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>证明谓语演算的推理不太熟悉</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>推理,谓词演算</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>推理规则</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>推理,谓词演算</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>证明谓词演算的推理</t>
         </is>
       </c>
     </row>

--- a/main/resource/线上学习-谓词逻辑2_1678767032821.xlsx
+++ b/main/resource/线上学习-谓词逻辑2_1678767032821.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Questions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Questions" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,7 +436,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>规则,蕴含</t>
+          <t>定理,证明</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -448,468 +448,456 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>规则,蕴含</t>
+          <t>定理,证明</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>没有不懂的地方</t>
+          <t>这个定理的1证明不理解 还有这些定理有没有例子可以帮助理解？34 57 68是不是没区别啊</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>规则,蕴含</t>
+          <t>定理,证明</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>这个定理的1证明不理解 还有这些定理有没有例子可以帮助理解？34 57 68是不是没区别啊</t>
+          <t>定理2.4.5怎么证明右边推不了左边？例题2.6.4的错误原因理解不来</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>规则,蕴含</t>
+          <t>定理,证明</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>老师您好，我对前束范式的讲解部分不能完全的理解。</t>
+          <t>蕴涵式的证明反方向不知道怎么证明前束范式有些不知道怎么提到前面</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>规则,蕴含</t>
+          <t>定理,证明</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>辖域收缩与扩招，量词换名规则不怎么懂</t>
+          <t>无法推出该如何说明</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>规则,蕴含</t>
+          <t>定理,证明</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>概念太多，记忆困难，视频内容不易理解</t>
+          <t>这里不太懂</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>规则,蕴含</t>
+          <t>定理,证明</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EI规则的条件3的逻辑意义不是很懂</t>
+          <t>标题錯亂影片程序錯亂课堂大概內容能够理解</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>规则,蕴含</t>
+          <t>定理,证明</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>是否先用EI再用UI可使消去后，存在xA（x）蕴含A（c）与任意xA（x）蕴含A（c）是成立的</t>
+          <t>容易和前面混淆</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>规则,蕴含</t>
+          <t>定理,证明</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>感觉UI规则成立的条件不太理解，其中的x是自由出现的个体变元但我感觉是被约束的</t>
+          <t>公式定理太多了，而且还没有彻底弄懂，似懂非懂的，有点记不住</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>规则,蕴含</t>
+          <t>定理,证明</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1、难以理解UI规则的成立条件，什么时候不能用啊2、像B（x)这种没有量词约束的，x到底什么意思呢，自由出现可以随意换名？</t>
+          <t>无</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>规则,蕴含</t>
+          <t>定理,证明</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>定理2.4.5怎么证明右边推不了左边？例题2.6.4的错误原因理解不来</t>
+          <t>存在x对所有y A（x，y）怎么推出对所有y存在x A（x，y）？</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>规则,蕴含</t>
+          <t>定理,证明</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>蕴涵式的证明反方向不知道怎么证明前束范式有些不知道怎么提到前面</t>
+          <t>没有</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>规则,蕴含</t>
+          <t>定理,证明</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>无法推出该如何说明</t>
+          <t>这道题不太理解</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>规则,蕴含</t>
+          <t>定理,证明</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>这里不太懂</t>
+          <t>等值式不太清楚</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>规则,蕴含</t>
+          <t>定理,证明</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>标题錯亂影片程序錯亂课堂大概內容能够理解</t>
+          <t>不会证明定理2.4.6下面的蕴含式</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>规则,蕴含</t>
+          <t>定理,证明</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>等值式和蕴含式容易搞混</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>规则,蕴含</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>容易和前面混淆</t>
+          <t>我觉得对于这个话题我只是表面上的略懂，想在周一的会议详细了解。</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>规则,蕴含</t>
+          <t>公式,蕴含</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>蕴含式和等价式的公式怎么记忆，总是乱了</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>规则,蕴含</t>
+          <t>公式,蕴含</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>前束范式</t>
+          <t>概念太多，记忆困难，视频内容不易理解</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>规则,蕴含</t>
+          <t>公式,蕴含</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>四个规则的条件有点难理解，叙述太繁琐，我感觉还能更简洁</t>
+          <t>是否先用EI再用UI可使消去后，存在xA（x）蕴含A（c）与任意xA（x）蕴含A（c）是成立的</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>规则,蕴含</t>
+          <t>公式,蕴含</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>存在x对所有y A（x，y）怎么推出对所有y存在x A（x，y）？</t>
+          <t>一些公式记不住</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>规则,蕴含</t>
+          <t>公式,蕴含</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>蕴含式还是有点不太懂</t>
+          <t>公式太多，推导时理由的名称难记</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>规则,蕴含</t>
+          <t>公式,蕴含</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>没有</t>
+          <t>等值式和蕴含式容易搞混</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>规则,蕴含</t>
+          <t>公式,蕴含</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>比较难理解和记忆各种规则</t>
+          <t>这些公式怎么理解啊？ 都不是很理解就不会运用</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>规则,蕴含</t>
+          <t>公式,蕴含</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>这道题不太理解</t>
+          <t>蕴含式还是有点不太懂</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>规则,蕴含</t>
+          <t>公式,蕴含</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>等值式不太清楚</t>
+          <t>多个量词同时使用的蕴含式不是特别理解</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>规则,蕴含</t>
+          <t>公式,蕴含</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>不会证明定理2.4.6下面的蕴含式</t>
+          <t>公式不记得</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>规则,蕴含</t>
+          <t>公式,蕴含</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>在换成前束范式中，什么时候需要把约束变元换名</t>
+          <t>比较难理解和记忆各种规则</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>规则,蕴含</t>
+          <t>公式,蕴含</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>我觉得对于这个话题我只是表面上的略懂，想在周一的会议详细了解。</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>公式,前束</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>蕴含式和等价式的公式怎么记忆，总是乱了</t>
+          <t>量词规则的使用注意事项可以讲得再仔细一点嘛感觉对各个公式掌握的还不够熟练</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>公式,蕴含</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>公式与规则有些多、且比较相似，记忆比较困难。</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>公式,前束</t>
+          <t>范式,前束</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>将公式转化为前束范式的套路是什么，怎么快速记住谓词演算的关系式</t>
+          <t>没有不懂的地方</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>公式,前束</t>
+          <t>范式,前束</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>一些公式记不住</t>
+          <t>将公式转化为前束范式的套路是什么，怎么快速记住谓词演算的关系式</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>公式,前束</t>
+          <t>范式,前束</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>公式太多，推导时理由的名称难记</t>
+          <t>老师您好，我对前束范式的讲解部分不能完全的理解。</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>公式,前束</t>
+          <t>范式,前束</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>这些公式怎么理解啊？ 都不是很理解就不会运用</t>
+          <t>我觉得逻辑变换的公式很乱，容易弄混</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>公式,前束</t>
+          <t>范式,前束</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>我觉得逻辑变换的公式很乱，容易弄混</t>
+          <t>如何求一个公式的前束范式</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>公式,前束</t>
+          <t>范式,前束</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>公式定理太多了，而且还没有彻底弄懂，似懂非懂的，有点记不住</t>
+          <t>前束范式</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>公式,前束</t>
+          <t>范式,前束</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>如何求一个公式的前束范式</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>公式,前束</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>公式不记得</t>
+          <t>在换成前束范式中，什么时候需要把约束变元换名</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>公式,前束</t>
+          <t>量词,消去</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>量词规则的使用注意事项可以讲得再仔细一点嘛感觉对各个公式掌握的还不够熟练</t>
+          <t>量词引用消去四条规则运用不是很熟练</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>公式,前束</t>
+          <t>量词,消去</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>公式与规则有些多、且比较相似，记忆比较困难。</t>
+          <t>辖域收缩与扩招，量词换名规则不怎么懂</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>量词,消去</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>感觉还行，对于消去和引用不熟</t>
         </is>
       </c>
     </row>
@@ -921,7 +909,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>量词引用消去四条规则运用不是很熟练</t>
+          <t>量词消去和引入的前提不能理解</t>
         </is>
       </c>
     </row>
@@ -933,7 +921,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>感觉还行，对于消去和引用不熟</t>
+          <t>在量词消去和引入的规则里，不理解自由出现的个体变元是不是和自由变元一样，第二章章节检测里的19，13，8题不太理解。</t>
         </is>
       </c>
     </row>
@@ -945,7 +933,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>量词消去和引入的前提不能理解</t>
+          <t>1、难以理解UI规则的成立条件，什么时候不能用啊2、像B（x)这种没有量词约束的，x到底什么意思呢，自由出现可以随意换名？</t>
         </is>
       </c>
     </row>
@@ -957,7 +945,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>在量词消去和引入的规则里，不理解自由出现的个体变元是不是和自由变元一样，第二章章节检测里的19，13，8题不太理解。</t>
+          <t>量词的引入和消除不是很理解谓词命题与前面学的命题的转换：对于什么时候可以转换不是很清楚</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1005,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>多个量词同时使用的蕴含式不是特别理解</t>
+          <t>量词消去前提不是很理解</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1017,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>量词消去前提不是很理解</t>
+          <t>量词消去和引入规则的成立条件</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1029,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>量词消去和引入规则的成立条件</t>
+          <t>消去引入规则不是很明白</t>
         </is>
       </c>
     </row>
@@ -1053,355 +1041,367 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>消去引入规则不是很明白</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>量词,消去</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
           <t>量词引入和消除的条件不太理解</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>推理,谓词</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>EI规则的条件3的逻辑意义不是很懂</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ei,ui</t>
+          <t>推理,谓词</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ui ei ug eg 不懂自由变元和约束变元看书不明白</t>
+          <t>对谓词关系式中的蕴含式的演算不够熟练</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ei,ui</t>
+          <t>推理,谓词</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>UI EI UG EG不是很理解，到底应该怎么用</t>
+          <t>谓词逻辑的推理规则的条件不太清楚</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ei,ui</t>
+          <t>推理,谓词</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>在推理的时候EI EG UI UG使用的时候不清楚能不能直接使用</t>
+          <t>将命题用谓词和量词表示比较困难难懂</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ei,ui</t>
+          <t>推理,谓词</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>只要用UI引入了一次自由变元，后面都不能对任意变元用EI了吗</t>
+          <t>难理解的是4条推理规则 比较容易弄混</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ei,ui</t>
+          <t>推理,谓词</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>EI和UG的使用前提不理解</t>
+          <t>谓词演算的推理关系</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ei,ui</t>
+          <t>推理,谓词</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ui规则，ei规则等的使用限制</t>
+          <t>推理规则不太明白</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ei,ui</t>
+          <t>推理,谓词</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>UI，EI，UG，EG为什么会有相应的适用条件</t>
+          <t>如何说明推理是否是逻辑有效的，指出推理错误。</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ei,ui</t>
+          <t>推理,谓词</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>EI, UI, EG, UG 规则。</t>
+          <t>谓词演算推理还找不到技巧</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ei,ui</t>
+          <t>推理,谓词</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>最后的ei ui规则理解不了</t>
+          <t>四个规则的条件有点难理解，叙述太繁琐，我感觉还能更简洁</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>推理,谓词</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>蕴含推理那里</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>谓词,推理</t>
+          <t>推理,谓词</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>对谓词关系式中的蕴含式的演算不够熟练</t>
+          <t>推理证明19（3）p5120（5）</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>谓词,推理</t>
+          <t>推理,谓词</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>量词的引入和消除不是很理解谓词命题与前面学的命题的转换：对于什么时候可以转换不是很清楚</t>
+          <t>推理问题的证明还是不是很熟谓词等价式，蕴涵式有点乱</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>谓词,推理</t>
+          <t>推理,谓词</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>谓词逻辑的推理规则的条件不太清楚</t>
+          <t>谓词等值式</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>谓词,推理</t>
+          <t>推理,谓词</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>将命题用谓词和量词表示比较困难难懂</t>
+          <t>难理解的主要在谓词蕴含</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>谓词,推理</t>
+          <t>推理,谓词</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>推理问题的证明还是不是很熟谓词等价式，蕴涵式有点乱</t>
+          <t>证明谓语演算的推理不太熟悉</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>谓词,推理</t>
+          <t>推理,谓词</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>谓词等值式</t>
+          <t>谓词逻辑的推理规则还不太明白</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>谓词,推理</t>
+          <t>推理,谓词</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>难理解的主要在谓词蕴含</t>
+          <t>谓词不太理解</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>谓词,推理</t>
+          <t>推理,谓词</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>谓词逻辑的推理规则还不太明白</t>
+          <t>推理规则</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>谓词,推理</t>
+          <t>推理,谓词</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>谓词不太理解</t>
+          <t>证明谓词演算的推理</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>推理,谓词演算</t>
+          <t>ei,ui</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>难理解的是4条推理规则 比较容易弄混</t>
+          <t>ui ei ug eg 不懂自由变元和约束变元看书不明白</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>推理,谓词演算</t>
+          <t>ei,ui</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>谓词演算的推理关系</t>
+          <t>感觉UI规则成立的条件不太理解，其中的x是自由出现的个体变元但我感觉是被约束的</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>推理,谓词演算</t>
+          <t>ei,ui</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>推理规则不太明白</t>
+          <t>UI EI UG EG不是很理解，到底应该怎么用</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>推理,谓词演算</t>
+          <t>ei,ui</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>如何说明推理是否是逻辑有效的，指出推理错误。</t>
+          <t>在推理的时候EI EG UI UG使用的时候不清楚能不能直接使用</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>推理,谓词演算</t>
+          <t>ei,ui</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>谓词演算推理还找不到技巧</t>
+          <t>只要用UI引入了一次自由变元，后面都不能对任意变元用EI了吗</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>推理,谓词演算</t>
+          <t>ei,ui</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>蕴含推理那里</t>
+          <t>EI和UG的使用前提不理解</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>推理,谓词演算</t>
+          <t>ei,ui</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>推理证明19（3）p5120（5）</t>
+          <t>ui规则，ei规则等的使用限制</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>推理,谓词演算</t>
+          <t>ei,ui</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>证明谓语演算的推理不太熟悉</t>
+          <t>UI，EI，UG，EG为什么会有相应的适用条件</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>推理,谓词演算</t>
+          <t>ei,ui</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>推理规则</t>
+          <t>EI, UI, EG, UG 规则。</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>推理,谓词演算</t>
+          <t>ei,ui</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>证明谓词演算的推理</t>
+          <t>最后的ei ui规则理解不了</t>
         </is>
       </c>
     </row>
